--- a/個人事業主向け税金どんぶり勘定シート.xlsx
+++ b/個人事業主向け税金どんぶり勘定シート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rozen\OneDrive\@@sync_work\@確定申告\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@work\@SourceTree\@github\obwebsys\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="58830" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="59760" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="2022予測実績シート" sheetId="35" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="140">
   <si>
     <t>電気代</t>
   </si>
@@ -1284,6 +1284,84 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>実質年収</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社会保険年計</t>
+    <rPh sb="0" eb="2">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実質月収</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲッシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実質月控除</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実質月手取り</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実質年収と手取り把握</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハアク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1292,7 +1370,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="\\#,##0;&quot;\-&quot;#,##0"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1643,6 +1721,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1774,7 +1861,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2113,6 +2200,9 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2219,7 +2309,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2353,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,7 +2409,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2611,10 +2701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4857,6 +4947,58 @@
       <c r="A171" s="59"/>
       <c r="B171" s="86"/>
     </row>
+    <row r="172" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="B172" s="100"/>
+      <c r="C172" s="101"/>
+    </row>
+    <row r="173" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B173" s="69">
+        <f>SUM(B143-B144)</f>
+        <v>4173320</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A174" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="B174" s="69">
+        <f>SUM(B150:B152)</f>
+        <v>1416720</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A175" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B175" s="69">
+        <f>SUM(B173)/12</f>
+        <v>347776.66666666669</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A176" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="B176" s="69">
+        <f>B174/12</f>
+        <v>118060</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A177" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B177" s="113">
+        <f>B175-B176</f>
+        <v>229716.66666666669</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
